--- a/Operativa/analisis.xlsx
+++ b/Operativa/analisis.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="239">
-  <si>
-    <t>248,75 $</t>
-  </si>
-  <si>
-    <t>3,50 $</t>
-  </si>
-  <si>
-    <t>980,00 $</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="184">
+  <si>
+    <t>1.294,50 $</t>
+  </si>
+  <si>
+    <t>24/02/2023</t>
   </si>
   <si>
     <t>11,50 $</t>
   </si>
   <si>
-    <t>20/02/2023</t>
-  </si>
-  <si>
-    <t>12.44</t>
+    <t>7.15</t>
+  </si>
+  <si>
+    <t>1.239,50 $</t>
   </si>
   <si>
     <t>6,00 $</t>
@@ -43,22 +40,16 @@
     <t>0,00 $</t>
   </si>
   <si>
-    <t>131,25 $</t>
-  </si>
-  <si>
     <t>-565,00 $</t>
   </si>
   <si>
-    <t>65,50 $</t>
-  </si>
-  <si>
     <t>90,00 $</t>
   </si>
   <si>
     <t>330,00 $</t>
   </si>
   <si>
-    <t>21,50 $</t>
+    <t>203,75 $</t>
   </si>
   <si>
     <t>0.68</t>
@@ -67,24 +58,15 @@
     <t>175,00 $</t>
   </si>
   <si>
-    <t>106,25 $</t>
-  </si>
-  <si>
     <t>MTR</t>
   </si>
   <si>
     <t>339,50 $</t>
   </si>
   <si>
-    <t>0.00 %</t>
-  </si>
-  <si>
     <t>0.71</t>
   </si>
   <si>
-    <t>52,50 $</t>
-  </si>
-  <si>
     <t>5.26 %</t>
   </si>
   <si>
@@ -94,9 +76,6 @@
     <t>2.33</t>
   </si>
   <si>
-    <t>4.611,50 $</t>
-  </si>
-  <si>
     <t>-71,25 $</t>
   </si>
   <si>
@@ -112,7 +91,7 @@
     <t>210,00 $</t>
   </si>
   <si>
-    <t>4.726,50 $</t>
+    <t>1.554,50 $</t>
   </si>
   <si>
     <t>Gross loss</t>
@@ -127,16 +106,10 @@
     <t>82,50 $</t>
   </si>
   <si>
-    <t>66,00 $</t>
-  </si>
-  <si>
-    <t>142,00 $</t>
-  </si>
-  <si>
-    <t>265,00 $</t>
-  </si>
-  <si>
-    <t>33,25 $</t>
+    <t>95,00 $</t>
+  </si>
+  <si>
+    <t>255,00 $</t>
   </si>
   <si>
     <t>08/02/2023</t>
@@ -151,21 +124,18 @@
     <t>44,50 $</t>
   </si>
   <si>
-    <t>4.426,50 $</t>
-  </si>
-  <si>
     <t>225,00 $</t>
   </si>
   <si>
     <t>26,00 $</t>
   </si>
   <si>
-    <t>37,75 $</t>
-  </si>
-  <si>
     <t>75,00 $</t>
   </si>
   <si>
+    <t>220,00 $</t>
+  </si>
+  <si>
     <t>30/01/2023</t>
   </si>
   <si>
@@ -175,54 +145,33 @@
     <t>Lrg. winner</t>
   </si>
   <si>
-    <t>-28,75 $</t>
-  </si>
-  <si>
-    <t>22.82</t>
-  </si>
-  <si>
-    <t>17,00 $</t>
-  </si>
-  <si>
     <t>40.32</t>
   </si>
   <si>
-    <t>-115,00 $</t>
-  </si>
-  <si>
-    <t>7.02 %</t>
+    <t>1.434,50 $</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>1.369,50 $</t>
   </si>
   <si>
     <t>280,00 $</t>
   </si>
   <si>
-    <t>60.74</t>
-  </si>
-  <si>
     <t>110,00 $</t>
   </si>
   <si>
     <t>3.09</t>
   </si>
   <si>
-    <t>173,00 $</t>
-  </si>
-  <si>
     <t>115,00 $</t>
   </si>
   <si>
     <t>275,00 $</t>
   </si>
   <si>
-    <t>131,00 $</t>
-  </si>
-  <si>
-    <t>67,50 $</t>
-  </si>
-  <si>
-    <t>227,86 $</t>
-  </si>
-  <si>
     <t>5,00 $</t>
   </si>
   <si>
@@ -235,66 +184,66 @@
     <t>0.25</t>
   </si>
   <si>
-    <t>53,50 $</t>
+    <t>1.534,50 $</t>
   </si>
   <si>
     <t>145,00 $</t>
   </si>
   <si>
-    <t>6,50 $</t>
+    <t>1.174,50 $</t>
+  </si>
+  <si>
+    <t>10.53 %</t>
+  </si>
+  <si>
+    <t>135,00 $</t>
   </si>
   <si>
     <t>Avg. trade</t>
   </si>
   <si>
-    <t>22,50 $</t>
-  </si>
-  <si>
-    <t>-44,00 $</t>
-  </si>
-  <si>
     <t>12/01/2023</t>
   </si>
   <si>
-    <t>62,50 $</t>
-  </si>
-  <si>
     <t>1.41</t>
   </si>
   <si>
     <t>0.09</t>
   </si>
   <si>
-    <t>53,75 $</t>
-  </si>
-  <si>
     <t>23,00 $</t>
   </si>
   <si>
+    <t>-43,75 $</t>
+  </si>
+  <si>
     <t>02/02/2023</t>
   </si>
   <si>
-    <t>5.337,50 $</t>
-  </si>
-  <si>
     <t>0.39</t>
   </si>
   <si>
     <t>529,50 $</t>
   </si>
   <si>
-    <t>43,67 $</t>
+    <t>127,50 $</t>
+  </si>
+  <si>
+    <t>375,00 $</t>
+  </si>
+  <si>
+    <t>151,25 $</t>
   </si>
   <si>
     <t>186,25 $</t>
   </si>
   <si>
+    <t>1.194,50 $</t>
+  </si>
+  <si>
     <t>% Win</t>
   </si>
   <si>
-    <t>-30,00 $</t>
-  </si>
-  <si>
     <t>Net profit</t>
   </si>
   <si>
@@ -304,33 +253,21 @@
     <t>-285,00 $</t>
   </si>
   <si>
-    <t>5.237,50 $</t>
-  </si>
-  <si>
     <t>07/02/2023</t>
   </si>
   <si>
     <t>Commission</t>
   </si>
   <si>
-    <t>-130,00 $</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>33,00 $</t>
-  </si>
-  <si>
-    <t>17,50 $</t>
+    <t>7.89 %</t>
+  </si>
+  <si>
+    <t>15,00 $</t>
   </si>
   <si>
     <t>-320,00 $</t>
   </si>
   <si>
-    <t>-116,00 $</t>
-  </si>
-  <si>
     <t>17/02/2023</t>
   </si>
   <si>
@@ -340,9 +277,6 @@
     <t>125,00 $</t>
   </si>
   <si>
-    <t>-15,00 $</t>
-  </si>
-  <si>
     <t>230,00 $</t>
   </si>
   <si>
@@ -358,12 +292,6 @@
     <t>140,00 $</t>
   </si>
   <si>
-    <t>4.557,50 $</t>
-  </si>
-  <si>
-    <t>12,00 $</t>
-  </si>
-  <si>
     <t>23/12/2022</t>
   </si>
   <si>
@@ -376,34 +304,25 @@
     <t>16/02/2023</t>
   </si>
   <si>
-    <t>1.75 %</t>
-  </si>
-  <si>
-    <t>34,25 $</t>
-  </si>
-  <si>
-    <t>-84,00 $</t>
-  </si>
-  <si>
     <t>274,50 $</t>
   </si>
   <si>
+    <t>0.14</t>
+  </si>
+  <si>
     <t>25/01/2023</t>
   </si>
   <si>
-    <t>17,83 $</t>
-  </si>
-  <si>
-    <t>72.24</t>
+    <t>22/02/2023</t>
   </si>
   <si>
     <t>20,00 $</t>
   </si>
   <si>
-    <t>-182,50 $</t>
-  </si>
-  <si>
-    <t>195,50 $</t>
+    <t>1.114,50 $</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
   <si>
     <t>15/02/2023</t>
@@ -421,16 +340,7 @@
     <t>24/01/2023</t>
   </si>
   <si>
-    <t>-105,00 $</t>
-  </si>
-  <si>
-    <t>4.610,50 $</t>
-  </si>
-  <si>
-    <t>504,29 $</t>
-  </si>
-  <si>
-    <t>66.67 %</t>
+    <t>33,33 $</t>
   </si>
   <si>
     <t>Cum. net profit</t>
@@ -451,7 +361,10 @@
     <t>574,50 $</t>
   </si>
   <si>
-    <t>0.98</t>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>1.614,50 $</t>
   </si>
   <si>
     <t>10,00 $</t>
@@ -460,6 +373,12 @@
     <t>10,50 $</t>
   </si>
   <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>23/02/2023</t>
+  </si>
+  <si>
     <t>0.43</t>
   </si>
   <si>
@@ -469,39 +388,15 @@
     <t>Avg. MAE</t>
   </si>
   <si>
-    <t>5.42</t>
-  </si>
-  <si>
     <t>185,00 $</t>
   </si>
   <si>
-    <t>148,25 $</t>
-  </si>
-  <si>
-    <t>03/02/2023</t>
-  </si>
-  <si>
-    <t>3.530,00 $</t>
-  </si>
-  <si>
     <t>25,00 $</t>
   </si>
   <si>
-    <t>87,00 $</t>
-  </si>
-  <si>
-    <t>-103,00 $</t>
-  </si>
-  <si>
-    <t>12.28 %</t>
-  </si>
-  <si>
     <t>130,00 $</t>
   </si>
   <si>
-    <t>61,50 $</t>
-  </si>
-  <si>
     <t>03/01/2023</t>
   </si>
   <si>
@@ -511,76 +406,52 @@
     <t>18/01/2023</t>
   </si>
   <si>
-    <t>66,50 $</t>
-  </si>
-  <si>
     <t>50,00 $</t>
   </si>
   <si>
     <t>11/01/2023</t>
   </si>
   <si>
-    <t>-61,00 $</t>
-  </si>
-  <si>
     <t>35,00 $</t>
   </si>
   <si>
-    <t>3.51 %</t>
-  </si>
-  <si>
-    <t>09/02/2023</t>
+    <t>42,50 $</t>
   </si>
   <si>
     <t>1,00 $</t>
   </si>
   <si>
-    <t>142,50 $</t>
-  </si>
-  <si>
     <t>29/12/2022</t>
   </si>
   <si>
-    <t>200,00 $</t>
-  </si>
-  <si>
     <t>0.96</t>
   </si>
   <si>
-    <t>60.00 %</t>
+    <t>1.324,50 $</t>
   </si>
   <si>
     <t>0.84</t>
   </si>
   <si>
-    <t>-13,00 $</t>
-  </si>
-  <si>
     <t>06/02/2023</t>
   </si>
   <si>
-    <t>-195,00 $</t>
-  </si>
-  <si>
     <t>75.00 %</t>
   </si>
   <si>
     <t>180,00 $</t>
   </si>
   <si>
-    <t>4.653,50 $</t>
-  </si>
-  <si>
-    <t>570,00 $</t>
+    <t>7,50 $</t>
   </si>
   <si>
     <t>-240,50 $</t>
   </si>
   <si>
-    <t>4.660,00 $</t>
-  </si>
-  <si>
-    <t>-365,00 $</t>
+    <t>2.63 %</t>
+  </si>
+  <si>
+    <t>-5,00 $</t>
   </si>
   <si>
     <t>310,00 $</t>
@@ -592,28 +463,22 @@
     <t>21/02/2023</t>
   </si>
   <si>
-    <t>4.623,50 $</t>
-  </si>
-  <si>
-    <t>25.00 %</t>
+    <t>66,67 $</t>
   </si>
   <si>
     <t>-150,00 $</t>
   </si>
   <si>
+    <t>260,00 $</t>
+  </si>
+  <si>
     <t>65,00 $</t>
   </si>
   <si>
     <t>0.06</t>
   </si>
   <si>
-    <t>01/02/2023</t>
-  </si>
-  <si>
-    <t>79.23</t>
-  </si>
-  <si>
-    <t>4.369,50 $</t>
+    <t>1.189,50 $</t>
   </si>
   <si>
     <t>18,00 $</t>
@@ -622,57 +487,39 @@
     <t>Avg. loser</t>
   </si>
   <si>
+    <t>2.09</t>
+  </si>
+  <si>
     <t>150,00 $</t>
   </si>
   <si>
-    <t>-400,00 $</t>
-  </si>
-  <si>
     <t>19,00 $</t>
   </si>
   <si>
-    <t>50,50 $</t>
-  </si>
-  <si>
-    <t>4.646,50 $</t>
+    <t>107,50 $</t>
   </si>
   <si>
     <t>100,00 $</t>
   </si>
   <si>
-    <t>-220,00 $</t>
+    <t>78.80</t>
   </si>
   <si>
     <t>60,00 $</t>
   </si>
   <si>
-    <t>-67,50 $</t>
-  </si>
-  <si>
-    <t>8.77 %</t>
-  </si>
-  <si>
     <t>% Trade</t>
   </si>
   <si>
     <t>Gross profit</t>
   </si>
   <si>
-    <t>-38,00 $</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
     <t>644,50 $</t>
   </si>
   <si>
     <t>Period</t>
   </si>
   <si>
-    <t>284,00 $</t>
-  </si>
-  <si>
     <t>50.00 %</t>
   </si>
   <si>
@@ -682,39 +529,27 @@
     <t>30,00 $</t>
   </si>
   <si>
-    <t>31,75 $</t>
-  </si>
-  <si>
     <t>10/02/2023</t>
   </si>
   <si>
     <t>489,50 $</t>
   </si>
   <si>
-    <t>98,75 $</t>
-  </si>
-  <si>
     <t>Lrg. loser</t>
   </si>
   <si>
+    <t>1.714,50 $</t>
+  </si>
+  <si>
     <t>Avg. winner</t>
   </si>
   <si>
-    <t>579,29 $</t>
-  </si>
-  <si>
-    <t>4.676,50 $</t>
-  </si>
-  <si>
     <t>Cum. max. drawdown</t>
   </si>
   <si>
     <t>36,50 $</t>
   </si>
   <si>
-    <t>5.127,50 $</t>
-  </si>
-  <si>
     <t>85,00 $</t>
   </si>
   <si>
@@ -727,10 +562,10 @@
     <t>105,00 $</t>
   </si>
   <si>
-    <t>77,50 $</t>
-  </si>
-  <si>
-    <t>46,33 $</t>
+    <t>-175,00 $</t>
+  </si>
+  <si>
+    <t>-70,00 $</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +901,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1078,1800 +913,1738 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="M1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="N1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
       <c r="T1" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="L2" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="O2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="O3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="R3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="Q4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="S4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="N5" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="O5" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="Q5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="S5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="T5" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="M6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="O6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="R6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="T6" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" t="s">
         <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" t="s">
-        <v>64</v>
-      </c>
-      <c r="S7" t="s">
-        <v>90</v>
-      </c>
-      <c r="T7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
         <v>94</v>
       </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" t="s">
-        <v>118</v>
-      </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="O8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q8" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="R8" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="S8" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="T8" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="R9" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="S9" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="T9" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="L10" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="M10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="O10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P10" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="Q10" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="R10" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="S10" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="T10" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="L11" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="M11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="O11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="Q11" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="R11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N12" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="O12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="Q12" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="R12" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" t="s">
+        <v>170</v>
+      </c>
+      <c r="T13" t="s">
         <v>144</v>
-      </c>
-      <c r="D13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" t="s">
-        <v>149</v>
-      </c>
-      <c r="M13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" t="s">
-        <v>149</v>
-      </c>
-      <c r="O13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S13" t="s">
-        <v>221</v>
-      </c>
-      <c r="T13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="R14" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="S14" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="T14" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="O15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="Q15" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="R15" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="S15" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="T15" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>67</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="M16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N16" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="O16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="Q16" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="R16" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="T16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="M17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N17" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P17" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="Q17" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="R17" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="S17" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="T17" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>154</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>187</v>
-      </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="I18" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M18" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="N18" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="P18" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="R18" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="S18" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="T18" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="M19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N19" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="O19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="Q19" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="R19" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="T19" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="N20" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="P20" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="R20" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="S20" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="J21" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="M21" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="P21" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="Q21" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="R21" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="S21" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="T21" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="L22" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="M22" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="N22" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="O22" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="Q22" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="R22" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="S22" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="I23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="M23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N23" t="s">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="O23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P23" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="Q23" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="R23" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="S23" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="T23" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="L24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M24" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O24" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="Q24" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="R24" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="S24" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="T24" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>161</v>
+      </c>
+      <c r="O25" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>52</v>
+      </c>
+      <c r="R25" t="s">
+        <v>158</v>
+      </c>
+      <c r="S25" t="s">
         <v>130</v>
       </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>203</v>
-      </c>
-      <c r="I25" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" t="s">
-        <v>177</v>
-      </c>
-      <c r="K25" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" t="s">
-        <v>128</v>
-      </c>
-      <c r="N25" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" t="s">
-        <v>103</v>
-      </c>
-      <c r="P25" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>63</v>
-      </c>
-      <c r="R25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S25" t="s">
-        <v>66</v>
-      </c>
       <c r="T25" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="M26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N26" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="Q26" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="R26" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="S26" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="T26" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="O27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P27" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="Q27" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="R27" t="s">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="S27" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N28" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="O28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="Q28" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="R28" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="S28" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="T28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" t="s">
-        <v>117</v>
-      </c>
-      <c r="K29" t="s">
-        <v>207</v>
-      </c>
-      <c r="L29" t="s">
-        <v>207</v>
-      </c>
-      <c r="M29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" t="s">
-        <v>207</v>
-      </c>
-      <c r="O29" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>69</v>
-      </c>
-      <c r="R29" t="s">
-        <v>202</v>
-      </c>
-      <c r="S29" t="s">
-        <v>166</v>
-      </c>
-      <c r="T29" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
